--- a/Traduzido/PTBR/Lang/PTBR/Data/Name.xlsx
+++ b/Traduzido/PTBR/Lang/PTBR/Data/Name.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\PTBR\Lang\PTBR\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D662D9B4-383F-4B4C-AEAB-01E13F80AFDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6379EC3A-6193-449D-8469-87986BFFE386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10995" yWindow="1410" windowWidth="17790" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Name_EN" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="156">
   <si>
     <t>an</t>
   </si>
@@ -246,214 +246,250 @@
     <t>per</t>
   </si>
   <si>
-    <t>xe</t>
-  </si>
-  <si>
-    <t>ser</t>
-  </si>
-  <si>
-    <t>sk</t>
-  </si>
-  <si>
-    <t>da</t>
-  </si>
-  <si>
-    <t>ma</t>
-  </si>
-  <si>
-    <t>fe</t>
-  </si>
-  <si>
-    <t>dae</t>
-  </si>
-  <si>
-    <t>or</t>
-  </si>
-  <si>
-    <t>pho</t>
-  </si>
-  <si>
-    <t>fen</t>
-  </si>
-  <si>
-    <t>lir</t>
-  </si>
-  <si>
-    <t>fr</t>
-  </si>
-  <si>
-    <t>ne</t>
-  </si>
-  <si>
-    <t>dam</t>
-  </si>
-  <si>
-    <t>fa</t>
-  </si>
-  <si>
-    <t>ka</t>
-  </si>
-  <si>
-    <t>ty</t>
-  </si>
-  <si>
-    <t>ga</t>
-  </si>
-  <si>
-    <t>ca</t>
-  </si>
-  <si>
-    <t>ar</t>
-  </si>
-  <si>
-    <t>tho</t>
-  </si>
-  <si>
-    <t>le</t>
-  </si>
-  <si>
-    <t>gw</t>
-  </si>
-  <si>
-    <t>rag</t>
-  </si>
-  <si>
-    <t>za</t>
-  </si>
-  <si>
-    <t>tob</t>
-  </si>
-  <si>
-    <t>so</t>
-  </si>
-  <si>
-    <t>sor</t>
-  </si>
-  <si>
-    <t>ta</t>
-  </si>
-  <si>
-    <t>mi</t>
-  </si>
-  <si>
-    <t>ay</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>ae</t>
-  </si>
-  <si>
-    <t>ezr</t>
-  </si>
-  <si>
-    <t>al</t>
-  </si>
-  <si>
-    <t>kl</t>
-  </si>
-  <si>
-    <t>ni</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>cl</t>
-  </si>
-  <si>
-    <t>br</t>
-  </si>
-  <si>
-    <t>zi</t>
-  </si>
-  <si>
-    <t>ax</t>
-  </si>
-  <si>
-    <t>sel</t>
-  </si>
-  <si>
-    <t>as</t>
-  </si>
-  <si>
-    <t>cas</t>
-  </si>
-  <si>
-    <t>od</t>
-  </si>
-  <si>
-    <t>ez</t>
-  </si>
-  <si>
-    <t>lu</t>
-  </si>
-  <si>
-    <t>se</t>
-  </si>
-  <si>
-    <t>ath</t>
-  </si>
-  <si>
-    <t>yu</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>jas</t>
-  </si>
-  <si>
-    <t>am</t>
-  </si>
-  <si>
-    <t>ala</t>
-  </si>
-  <si>
-    <t>luc</t>
-  </si>
-  <si>
-    <t>dr</t>
-  </si>
-  <si>
-    <t>tha</t>
-  </si>
-  <si>
-    <t>cel</t>
-  </si>
-  <si>
-    <t>sak</t>
-  </si>
-  <si>
-    <t>cae</t>
-  </si>
-  <si>
-    <t>k</t>
-  </si>
-  <si>
-    <t>ak</t>
-  </si>
-  <si>
-    <t>ve</t>
-  </si>
-  <si>
-    <t>t</t>
-  </si>
-  <si>
-    <t>ir</t>
-  </si>
-  <si>
-    <t>ly</t>
-  </si>
-  <si>
-    <t>sy</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>ju</t>
+    <t>Xe</t>
+  </si>
+  <si>
+    <t>Ser</t>
+  </si>
+  <si>
+    <t>Sk</t>
+  </si>
+  <si>
+    <t>Da</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Ma</t>
+  </si>
+  <si>
+    <t>Fe</t>
+  </si>
+  <si>
+    <t>Dae</t>
+  </si>
+  <si>
+    <t>Or</t>
+  </si>
+  <si>
+    <t>Pho</t>
+  </si>
+  <si>
+    <t>Fen</t>
+  </si>
+  <si>
+    <t>Lir</t>
+  </si>
+  <si>
+    <t>Fr</t>
+  </si>
+  <si>
+    <t>Ne</t>
+  </si>
+  <si>
+    <t>Dam</t>
+  </si>
+  <si>
+    <t>Fa</t>
+  </si>
+  <si>
+    <t>Ka</t>
+  </si>
+  <si>
+    <t>Ty</t>
+  </si>
+  <si>
+    <t>Th</t>
+  </si>
+  <si>
+    <t>Ga</t>
+  </si>
+  <si>
+    <t>Ca</t>
+  </si>
+  <si>
+    <t>Ar</t>
+  </si>
+  <si>
+    <t>Tho</t>
+  </si>
+  <si>
+    <t>El</t>
+  </si>
+  <si>
+    <t>Le</t>
+  </si>
+  <si>
+    <t>Gw</t>
+  </si>
+  <si>
+    <t>Na</t>
+  </si>
+  <si>
+    <t>Rag</t>
+  </si>
+  <si>
+    <t>Za</t>
+  </si>
+  <si>
+    <t>Tob</t>
+  </si>
+  <si>
+    <t>So</t>
+  </si>
+  <si>
+    <t>Sor</t>
+  </si>
+  <si>
+    <t>Ta</t>
+  </si>
+  <si>
+    <t>Mi</t>
+  </si>
+  <si>
+    <t>Ay</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Nar</t>
+  </si>
+  <si>
+    <t>Ae</t>
+  </si>
+  <si>
+    <t>Ezr</t>
+  </si>
+  <si>
+    <t>Al</t>
+  </si>
+  <si>
+    <t>Kl</t>
+  </si>
+  <si>
+    <t>Ni</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Cl</t>
+  </si>
+  <si>
+    <t>Br</t>
+  </si>
+  <si>
+    <t>Zi</t>
+  </si>
+  <si>
+    <t>Ax</t>
+  </si>
+  <si>
+    <t>Ri</t>
+  </si>
+  <si>
+    <t>Sel</t>
+  </si>
+  <si>
+    <t>As</t>
+  </si>
+  <si>
+    <t>Ro</t>
+  </si>
+  <si>
+    <t>Cas</t>
+  </si>
+  <si>
+    <t>Od</t>
+  </si>
+  <si>
+    <t>Ez</t>
+  </si>
+  <si>
+    <t>Lu</t>
+  </si>
+  <si>
+    <t>En</t>
+  </si>
+  <si>
+    <t>Se</t>
+  </si>
+  <si>
+    <t>Ath</t>
+  </si>
+  <si>
+    <t>Yu</t>
+  </si>
+  <si>
+    <t>Ze</t>
+  </si>
+  <si>
+    <t>Jas</t>
+  </si>
+  <si>
+    <t>Am</t>
+  </si>
+  <si>
+    <t>Ala</t>
+  </si>
+  <si>
+    <t>Luc</t>
+  </si>
+  <si>
+    <t>Dr</t>
+  </si>
+  <si>
+    <t>Tha</t>
+  </si>
+  <si>
+    <t>Ei</t>
+  </si>
+  <si>
+    <t>Cel</t>
+  </si>
+  <si>
+    <t>Sak</t>
+  </si>
+  <si>
+    <t>Ra</t>
+  </si>
+  <si>
+    <t>Cae</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Ak</t>
+  </si>
+  <si>
+    <t>Ve</t>
+  </si>
+  <si>
+    <t>Ki</t>
+  </si>
+  <si>
+    <t>Lo</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Ir</t>
+  </si>
+  <si>
+    <t>Ly</t>
+  </si>
+  <si>
+    <t>Sy</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Ju</t>
   </si>
 </sst>
 </file>
@@ -788,8 +824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A248" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A267"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -847,7 +883,7 @@
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
@@ -856,7 +892,7 @@
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>23</v>
@@ -864,7 +900,7 @@
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>15</v>
@@ -872,7 +908,7 @@
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>24</v>
@@ -880,7 +916,7 @@
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>25</v>
@@ -888,7 +924,7 @@
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>4</v>
@@ -896,7 +932,7 @@
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>26</v>
@@ -904,7 +940,7 @@
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>27</v>
@@ -912,7 +948,7 @@
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>28</v>
@@ -920,7 +956,7 @@
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>13</v>
@@ -928,7 +964,7 @@
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>29</v>
@@ -936,7 +972,7 @@
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>12</v>
@@ -944,7 +980,7 @@
     </row>
     <row r="20" spans="1:2" ht="15.75" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>8</v>
@@ -952,7 +988,7 @@
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>7</v>
@@ -960,7 +996,7 @@
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>22</v>
@@ -968,7 +1004,7 @@
     </row>
     <row r="23" spans="1:2" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>30</v>
@@ -976,7 +1012,7 @@
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>31</v>
@@ -984,7 +1020,7 @@
     </row>
     <row r="25" spans="1:2" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>27</v>
@@ -992,7 +1028,7 @@
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>32</v>
@@ -1000,7 +1036,7 @@
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>15</v>
@@ -1008,7 +1044,7 @@
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>33</v>
@@ -1016,7 +1052,7 @@
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>16</v>
@@ -1024,7 +1060,7 @@
     </row>
     <row r="30" spans="1:2" ht="15.75" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>13</v>
@@ -1032,7 +1068,7 @@
     </row>
     <row r="31" spans="1:2" ht="15.75" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>17</v>
@@ -1040,7 +1076,7 @@
     </row>
     <row r="32" spans="1:2" ht="15.75" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>8</v>
@@ -1048,7 +1084,7 @@
     </row>
     <row r="33" spans="1:2" ht="15.75" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>34</v>
@@ -1064,7 +1100,7 @@
     </row>
     <row r="35" spans="1:2" ht="15.75" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>35</v>
@@ -1072,7 +1108,7 @@
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>13</v>
@@ -1080,7 +1116,7 @@
     </row>
     <row r="37" spans="1:2" ht="12.75">
       <c r="A37" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>36</v>
@@ -1088,7 +1124,7 @@
     </row>
     <row r="38" spans="1:2" ht="12.75">
       <c r="A38" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>37</v>
@@ -1096,7 +1132,7 @@
     </row>
     <row r="39" spans="1:2" ht="12.75">
       <c r="A39" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>27</v>
@@ -1104,7 +1140,7 @@
     </row>
     <row r="40" spans="1:2" ht="12.75">
       <c r="A40" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>13</v>
@@ -1120,7 +1156,7 @@
     </row>
     <row r="42" spans="1:2" ht="12.75">
       <c r="A42" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>39</v>
@@ -1128,7 +1164,7 @@
     </row>
     <row r="43" spans="1:2" ht="12.75">
       <c r="A43" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>4</v>
@@ -1136,7 +1172,7 @@
     </row>
     <row r="44" spans="1:2" ht="12.75">
       <c r="A44" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>20</v>
@@ -1144,7 +1180,7 @@
     </row>
     <row r="45" spans="1:2" ht="12.75">
       <c r="A45" s="1" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>38</v>
@@ -1152,7 +1188,7 @@
     </row>
     <row r="46" spans="1:2" ht="12.75">
       <c r="A46" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>40</v>
@@ -1160,7 +1196,7 @@
     </row>
     <row r="47" spans="1:2" ht="12.75">
       <c r="A47" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>8</v>
@@ -1168,7 +1204,7 @@
     </row>
     <row r="48" spans="1:2" ht="12.75">
       <c r="A48" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>9</v>
@@ -1176,7 +1212,7 @@
     </row>
     <row r="49" spans="1:2" ht="12.75">
       <c r="A49" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>13</v>
@@ -1184,7 +1220,7 @@
     </row>
     <row r="50" spans="1:2" ht="12.75">
       <c r="A50" s="1" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>13</v>
@@ -1192,7 +1228,7 @@
     </row>
     <row r="51" spans="1:2" ht="12.75">
       <c r="A51" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>14</v>
@@ -1200,7 +1236,7 @@
     </row>
     <row r="52" spans="1:2" ht="12.75">
       <c r="A52" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>41</v>
@@ -1208,7 +1244,7 @@
     </row>
     <row r="53" spans="1:2" ht="12.75">
       <c r="A53" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>8</v>
@@ -1216,7 +1252,7 @@
     </row>
     <row r="54" spans="1:2" ht="12.75">
       <c r="A54" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>42</v>
@@ -1224,7 +1260,7 @@
     </row>
     <row r="55" spans="1:2" ht="12.75">
       <c r="A55" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>43</v>
@@ -1240,7 +1276,7 @@
     </row>
     <row r="57" spans="1:2" ht="12.75">
       <c r="A57" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>13</v>
@@ -1248,7 +1284,7 @@
     </row>
     <row r="58" spans="1:2" ht="12.75">
       <c r="A58" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>29</v>
@@ -1256,7 +1292,7 @@
     </row>
     <row r="59" spans="1:2" ht="12.75">
       <c r="A59" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>4</v>
@@ -1264,7 +1300,7 @@
     </row>
     <row r="60" spans="1:2" ht="12.75">
       <c r="A60" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>34</v>
@@ -1272,7 +1308,7 @@
     </row>
     <row r="61" spans="1:2" ht="12.75">
       <c r="A61" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>16</v>
@@ -1280,7 +1316,7 @@
     </row>
     <row r="62" spans="1:2" ht="12.75">
       <c r="A62" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>9</v>
@@ -1288,7 +1324,7 @@
     </row>
     <row r="63" spans="1:2" ht="12.75">
       <c r="A63" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>44</v>
@@ -1296,7 +1332,7 @@
     </row>
     <row r="64" spans="1:2" ht="12.75">
       <c r="A64" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>45</v>
@@ -1304,7 +1340,7 @@
     </row>
     <row r="65" spans="1:2" ht="12.75">
       <c r="A65" s="1" t="s">
-        <v>49</v>
+        <v>121</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>30</v>
@@ -1312,7 +1348,7 @@
     </row>
     <row r="66" spans="1:2" ht="12.75">
       <c r="A66" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>39</v>
@@ -1320,7 +1356,7 @@
     </row>
     <row r="67" spans="1:2" ht="12.75">
       <c r="A67" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>43</v>
@@ -1328,7 +1364,7 @@
     </row>
     <row r="68" spans="1:2" ht="12.75">
       <c r="A68" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>10</v>
@@ -1336,7 +1372,7 @@
     </row>
     <row r="69" spans="1:2" ht="12.75">
       <c r="A69" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>28</v>
@@ -1352,7 +1388,7 @@
     </row>
     <row r="71" spans="1:2" ht="12.75">
       <c r="A71" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>12</v>
@@ -1360,7 +1396,7 @@
     </row>
     <row r="72" spans="1:2" ht="12.75">
       <c r="A72" s="1" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>1</v>
@@ -1368,7 +1404,7 @@
     </row>
     <row r="73" spans="1:2" ht="12.75">
       <c r="A73" s="1" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>47</v>
@@ -1376,7 +1412,7 @@
     </row>
     <row r="74" spans="1:2" ht="12.75">
       <c r="A74" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>35</v>
@@ -1384,7 +1420,7 @@
     </row>
     <row r="75" spans="1:2" ht="12.75">
       <c r="A75" s="1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>48</v>
@@ -1392,7 +1428,7 @@
     </row>
     <row r="76" spans="1:2" ht="12.75">
       <c r="A76" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>13</v>
@@ -1400,7 +1436,7 @@
     </row>
     <row r="77" spans="1:2" ht="12.75">
       <c r="A77" s="1" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>49</v>
@@ -1408,7 +1444,7 @@
     </row>
     <row r="78" spans="1:2" ht="12.75">
       <c r="A78" s="1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>50</v>
@@ -1416,7 +1452,7 @@
     </row>
     <row r="79" spans="1:2" ht="12.75">
       <c r="A79" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>51</v>
@@ -1424,7 +1460,7 @@
     </row>
     <row r="80" spans="1:2" ht="12.75">
       <c r="A80" s="1" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>28</v>
@@ -1432,7 +1468,7 @@
     </row>
     <row r="81" spans="1:2" ht="12.75">
       <c r="A81" s="1" t="s">
-        <v>3</v>
+        <v>129</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>52</v>
@@ -1440,7 +1476,7 @@
     </row>
     <row r="82" spans="1:2" ht="12.75">
       <c r="A82" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>13</v>
@@ -1448,7 +1484,7 @@
     </row>
     <row r="83" spans="1:2" ht="12.75">
       <c r="A83" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>23</v>
@@ -1464,7 +1500,7 @@
     </row>
     <row r="85" spans="1:2" ht="12.75">
       <c r="A85" s="1" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>8</v>
@@ -1472,7 +1508,7 @@
     </row>
     <row r="86" spans="1:2" ht="12.75">
       <c r="A86" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>44</v>
@@ -1480,7 +1516,7 @@
     </row>
     <row r="87" spans="1:2" ht="12.75">
       <c r="A87" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>42</v>
@@ -1488,7 +1524,7 @@
     </row>
     <row r="88" spans="1:2" ht="12.75">
       <c r="A88" s="1" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>53</v>
@@ -1496,7 +1532,7 @@
     </row>
     <row r="89" spans="1:2" ht="12.75">
       <c r="A89" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>16</v>
@@ -1504,7 +1540,7 @@
     </row>
     <row r="90" spans="1:2" ht="12.75">
       <c r="A90" s="1" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>54</v>
@@ -1512,7 +1548,7 @@
     </row>
     <row r="91" spans="1:2" ht="12.75">
       <c r="A91" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>31</v>
@@ -1520,7 +1556,7 @@
     </row>
     <row r="92" spans="1:2" ht="12.75">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>45</v>
@@ -1528,7 +1564,7 @@
     </row>
     <row r="93" spans="1:2" ht="12.75">
       <c r="A93" s="1" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>55</v>
@@ -1536,7 +1572,7 @@
     </row>
     <row r="94" spans="1:2" ht="12.75">
       <c r="A94" s="1" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>6</v>
@@ -1544,7 +1580,7 @@
     </row>
     <row r="95" spans="1:2" ht="12.75">
       <c r="A95" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>56</v>
@@ -1552,7 +1588,7 @@
     </row>
     <row r="96" spans="1:2" ht="12.75">
       <c r="A96" s="1" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>35</v>
@@ -1568,7 +1604,7 @@
     </row>
     <row r="98" spans="1:2" ht="12.75">
       <c r="A98" s="1" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>37</v>
@@ -1576,7 +1612,7 @@
     </row>
     <row r="99" spans="1:2" ht="12.75">
       <c r="A99" s="1" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>21</v>
@@ -1584,7 +1620,7 @@
     </row>
     <row r="100" spans="1:2" ht="12.75">
       <c r="A100" s="1" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>39</v>
@@ -1592,7 +1628,7 @@
     </row>
     <row r="101" spans="1:2" ht="12.75">
       <c r="A101" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>26</v>
@@ -1600,7 +1636,7 @@
     </row>
     <row r="102" spans="1:2" ht="12.75">
       <c r="A102" s="1" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>47</v>
@@ -1608,7 +1644,7 @@
     </row>
     <row r="103" spans="1:2" ht="12.75">
       <c r="A103" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>35</v>
@@ -1616,7 +1652,7 @@
     </row>
     <row r="104" spans="1:2" ht="12.75">
       <c r="A104" s="1" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>57</v>
@@ -1624,7 +1660,7 @@
     </row>
     <row r="105" spans="1:2" ht="12.75">
       <c r="A105" s="1" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>0</v>
@@ -1632,7 +1668,7 @@
     </row>
     <row r="106" spans="1:2" ht="12.75">
       <c r="A106" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>12</v>
@@ -1640,7 +1676,7 @@
     </row>
     <row r="107" spans="1:2" ht="12.75">
       <c r="A107" s="1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>0</v>
@@ -1656,7 +1692,7 @@
     </row>
     <row r="109" spans="1:2" ht="12.75">
       <c r="A109" s="1" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>31</v>
@@ -1664,7 +1700,7 @@
     </row>
     <row r="110" spans="1:2" ht="12.75">
       <c r="A110" s="1" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>58</v>
@@ -1672,7 +1708,7 @@
     </row>
     <row r="111" spans="1:2" ht="12.75">
       <c r="A111" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>45</v>
@@ -1680,7 +1716,7 @@
     </row>
     <row r="112" spans="1:2" ht="12.75">
       <c r="A112" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>8</v>
@@ -1688,7 +1724,7 @@
     </row>
     <row r="113" spans="1:2" ht="12.75">
       <c r="A113" s="1" t="s">
-        <v>52</v>
+        <v>140</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>30</v>
@@ -1696,7 +1732,7 @@
     </row>
     <row r="114" spans="1:2" ht="12.75">
       <c r="A114" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>15</v>
@@ -1704,7 +1740,7 @@
     </row>
     <row r="115" spans="1:2" ht="12.75">
       <c r="A115" s="1" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>12</v>
@@ -1712,7 +1748,7 @@
     </row>
     <row r="116" spans="1:2" ht="12.75">
       <c r="A116" s="1" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>8</v>
@@ -1720,7 +1756,7 @@
     </row>
     <row r="117" spans="1:2" ht="12.75">
       <c r="A117" s="1" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>1</v>
@@ -1728,7 +1764,7 @@
     </row>
     <row r="118" spans="1:2" ht="12.75">
       <c r="A118" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>59</v>
@@ -1736,7 +1772,7 @@
     </row>
     <row r="119" spans="1:2" ht="12.75">
       <c r="A119" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>13</v>
@@ -1744,7 +1780,7 @@
     </row>
     <row r="120" spans="1:2" ht="12.75">
       <c r="A120" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>13</v>
@@ -1752,7 +1788,7 @@
     </row>
     <row r="121" spans="1:2" ht="12.75">
       <c r="A121" s="1" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>8</v>
@@ -1760,7 +1796,7 @@
     </row>
     <row r="122" spans="1:2" ht="12.75">
       <c r="A122" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>35</v>
@@ -1768,7 +1804,7 @@
     </row>
     <row r="123" spans="1:2" ht="12.75">
       <c r="A123" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>60</v>
@@ -1776,7 +1812,7 @@
     </row>
     <row r="124" spans="1:2" ht="12.75">
       <c r="A124" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>16</v>
@@ -1784,7 +1820,7 @@
     </row>
     <row r="125" spans="1:2" ht="12.75">
       <c r="A125" s="1" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>11</v>
@@ -1792,7 +1828,7 @@
     </row>
     <row r="126" spans="1:2" ht="12.75">
       <c r="A126" s="1" t="s">
-        <v>13</v>
+        <v>143</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>40</v>
@@ -1800,7 +1836,7 @@
     </row>
     <row r="127" spans="1:2" ht="12.75">
       <c r="A127" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>60</v>
@@ -1808,7 +1844,7 @@
     </row>
     <row r="128" spans="1:2" ht="12.75">
       <c r="A128" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>61</v>
@@ -1816,7 +1852,7 @@
     </row>
     <row r="129" spans="1:2" ht="12.75">
       <c r="A129" s="1" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>13</v>
@@ -1824,7 +1860,7 @@
     </row>
     <row r="130" spans="1:2" ht="12.75">
       <c r="A130" s="1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>21</v>
@@ -1832,7 +1868,7 @@
     </row>
     <row r="131" spans="1:2" ht="12.75">
       <c r="A131" s="1" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>36</v>
@@ -1840,7 +1876,7 @@
     </row>
     <row r="132" spans="1:2" ht="12.75">
       <c r="A132" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>49</v>
@@ -1848,7 +1884,7 @@
     </row>
     <row r="133" spans="1:2" ht="12.75">
       <c r="A133" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>28</v>
@@ -1856,7 +1892,7 @@
     </row>
     <row r="134" spans="1:2" ht="12.75">
       <c r="A134" s="1" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>13</v>
@@ -1864,7 +1900,7 @@
     </row>
     <row r="135" spans="1:2" ht="12.75">
       <c r="A135" s="1" t="s">
-        <v>49</v>
+        <v>121</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>17</v>
@@ -1872,7 +1908,7 @@
     </row>
     <row r="136" spans="1:2" ht="12.75">
       <c r="A136" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>62</v>
@@ -1880,7 +1916,7 @@
     </row>
     <row r="137" spans="1:2" ht="12.75">
       <c r="A137" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>42</v>
@@ -1888,7 +1924,7 @@
     </row>
     <row r="138" spans="1:2" ht="12.75">
       <c r="A138" s="1" t="s">
-        <v>49</v>
+        <v>121</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>55</v>
@@ -1904,7 +1940,7 @@
     </row>
     <row r="140" spans="1:2" ht="12.75">
       <c r="A140" s="1" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>15</v>
@@ -1912,7 +1948,7 @@
     </row>
     <row r="141" spans="1:2" ht="12.75">
       <c r="A141" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>56</v>
@@ -1920,7 +1956,7 @@
     </row>
     <row r="142" spans="1:2" ht="12.75">
       <c r="A142" s="1" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>39</v>
@@ -1928,7 +1964,7 @@
     </row>
     <row r="143" spans="1:2" ht="12.75">
       <c r="A143" s="1" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>62</v>
@@ -1936,7 +1972,7 @@
     </row>
     <row r="144" spans="1:2" ht="12.75">
       <c r="A144" s="1" t="s">
-        <v>13</v>
+        <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>27</v>
@@ -1944,7 +1980,7 @@
     </row>
     <row r="145" spans="1:2" ht="12.75">
       <c r="A145" s="1" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>2</v>
@@ -1952,7 +1988,7 @@
     </row>
     <row r="146" spans="1:2" ht="12.75">
       <c r="A146" s="1" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>32</v>
@@ -1960,7 +1996,7 @@
     </row>
     <row r="147" spans="1:2" ht="12.75">
       <c r="A147" s="1" t="s">
-        <v>52</v>
+        <v>140</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>35</v>
@@ -1968,7 +2004,7 @@
     </row>
     <row r="148" spans="1:2" ht="12.75">
       <c r="A148" s="1" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>16</v>
@@ -1976,7 +2012,7 @@
     </row>
     <row r="149" spans="1:2" ht="12.75">
       <c r="A149" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>10</v>
@@ -1984,7 +2020,7 @@
     </row>
     <row r="150" spans="1:2" ht="12.75">
       <c r="A150" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>15</v>
@@ -1992,7 +2028,7 @@
     </row>
     <row r="151" spans="1:2" ht="12.75">
       <c r="A151" s="1" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>64</v>
@@ -2000,7 +2036,7 @@
     </row>
     <row r="152" spans="1:2" ht="12.75">
       <c r="A152" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>65</v>
@@ -2008,7 +2044,7 @@
     </row>
     <row r="153" spans="1:2" ht="12.75">
       <c r="A153" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>13</v>
@@ -2016,7 +2052,7 @@
     </row>
     <row r="154" spans="1:2" ht="12.75">
       <c r="A154" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>66</v>
@@ -2024,7 +2060,7 @@
     </row>
     <row r="155" spans="1:2" ht="12.75">
       <c r="A155" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>14</v>
@@ -2032,7 +2068,7 @@
     </row>
     <row r="156" spans="1:2" ht="12.75">
       <c r="A156" s="1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>15</v>
@@ -2040,7 +2076,7 @@
     </row>
     <row r="157" spans="1:2" ht="12.75">
       <c r="A157" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>13</v>
@@ -2048,7 +2084,7 @@
     </row>
     <row r="158" spans="1:2" ht="12.75">
       <c r="A158" s="1" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>30</v>
@@ -2056,7 +2092,7 @@
     </row>
     <row r="159" spans="1:2" ht="12.75">
       <c r="A159" s="1" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>29</v>
@@ -2064,7 +2100,7 @@
     </row>
     <row r="160" spans="1:2" ht="12.75">
       <c r="A160" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>42</v>
@@ -2072,7 +2108,7 @@
     </row>
     <row r="161" spans="1:2" ht="12.75">
       <c r="A161" s="1" t="s">
-        <v>13</v>
+        <v>143</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>61</v>
@@ -2080,7 +2116,7 @@
     </row>
     <row r="162" spans="1:2" ht="12.75">
       <c r="A162" s="1" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>20</v>
@@ -2088,7 +2124,7 @@
     </row>
     <row r="163" spans="1:2" ht="12.75">
       <c r="A163" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>67</v>
@@ -2096,7 +2132,7 @@
     </row>
     <row r="164" spans="1:2" ht="12.75">
       <c r="A164" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>21</v>
@@ -2104,7 +2140,7 @@
     </row>
     <row r="165" spans="1:2" ht="12.75">
       <c r="A165" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>12</v>
@@ -2112,7 +2148,7 @@
     </row>
     <row r="166" spans="1:2" ht="12.75">
       <c r="A166" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>16</v>
@@ -2120,7 +2156,7 @@
     </row>
     <row r="167" spans="1:2" ht="12.75">
       <c r="A167" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>13</v>
@@ -2128,7 +2164,7 @@
     </row>
     <row r="168" spans="1:2" ht="12.75">
       <c r="A168" s="1" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>54</v>
@@ -2136,7 +2172,7 @@
     </row>
     <row r="169" spans="1:2" ht="12.75">
       <c r="A169" s="1" t="s">
-        <v>3</v>
+        <v>129</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>35</v>
@@ -2144,7 +2180,7 @@
     </row>
     <row r="170" spans="1:2" ht="12.75">
       <c r="A170" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>64</v>
@@ -2152,7 +2188,7 @@
     </row>
     <row r="171" spans="1:2" ht="12.75">
       <c r="A171" s="1" t="s">
-        <v>22</v>
+        <v>148</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>68</v>
@@ -2160,7 +2196,7 @@
     </row>
     <row r="172" spans="1:2" ht="12.75">
       <c r="A172" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>69</v>
@@ -2168,7 +2204,7 @@
     </row>
     <row r="173" spans="1:2" ht="12.75">
       <c r="A173" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>68</v>
@@ -2176,7 +2212,7 @@
     </row>
     <row r="174" spans="1:2" ht="12.75">
       <c r="A174" s="1" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>40</v>
@@ -2184,7 +2220,7 @@
     </row>
     <row r="175" spans="1:2" ht="12.75">
       <c r="A175" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>13</v>
@@ -2192,7 +2228,7 @@
     </row>
     <row r="176" spans="1:2" ht="12.75">
       <c r="A176" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>28</v>
@@ -2200,7 +2236,7 @@
     </row>
     <row r="177" spans="1:2" ht="12.75">
       <c r="A177" s="1" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>13</v>
@@ -2208,7 +2244,7 @@
     </row>
     <row r="178" spans="1:2" ht="12.75">
       <c r="A178" s="1" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>50</v>
@@ -2216,7 +2252,7 @@
     </row>
     <row r="179" spans="1:2" ht="12.75">
       <c r="A179" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>57</v>
@@ -2224,7 +2260,7 @@
     </row>
     <row r="180" spans="1:2" ht="12.75">
       <c r="A180" s="1" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>20</v>
@@ -2232,7 +2268,7 @@
     </row>
     <row r="181" spans="1:2" ht="12.75">
       <c r="A181" s="1" t="s">
-        <v>52</v>
+        <v>140</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>39</v>
@@ -2240,7 +2276,7 @@
     </row>
     <row r="182" spans="1:2" ht="12.75">
       <c r="A182" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>8</v>
@@ -2248,7 +2284,7 @@
     </row>
     <row r="183" spans="1:2" ht="12.75">
       <c r="A183" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>69</v>
@@ -2256,7 +2292,7 @@
     </row>
     <row r="184" spans="1:2" ht="12.75">
       <c r="A184" s="1" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>70</v>
@@ -2264,7 +2300,7 @@
     </row>
     <row r="185" spans="1:2" ht="12.75">
       <c r="A185" s="1" t="s">
-        <v>50</v>
+        <v>149</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>41</v>
@@ -2272,7 +2308,7 @@
     </row>
     <row r="186" spans="1:2" ht="12.75">
       <c r="A186" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>47</v>
@@ -2280,7 +2316,7 @@
     </row>
     <row r="187" spans="1:2" ht="12.75">
       <c r="A187" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>45</v>
@@ -2288,7 +2324,7 @@
     </row>
     <row r="188" spans="1:2" ht="12.75">
       <c r="A188" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>44</v>
@@ -2296,7 +2332,7 @@
     </row>
     <row r="189" spans="1:2" ht="12.75">
       <c r="A189" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>71</v>
@@ -2304,7 +2340,7 @@
     </row>
     <row r="190" spans="1:2" ht="12.75">
       <c r="A190" s="1" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>25</v>
@@ -2312,7 +2348,7 @@
     </row>
     <row r="191" spans="1:2" ht="12.75">
       <c r="A191" s="1" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>21</v>
@@ -2320,7 +2356,7 @@
     </row>
     <row r="192" spans="1:2" ht="12.75">
       <c r="A192" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>56</v>
@@ -2328,7 +2364,7 @@
     </row>
     <row r="193" spans="1:2" ht="12.75">
       <c r="A193" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>30</v>
@@ -2344,7 +2380,7 @@
     </row>
     <row r="195" spans="1:2" ht="12.75">
       <c r="A195" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>14</v>
@@ -2352,7 +2388,7 @@
     </row>
     <row r="196" spans="1:2" ht="12.75">
       <c r="A196" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>72</v>
@@ -2360,7 +2396,7 @@
     </row>
     <row r="197" spans="1:2" ht="12.75">
       <c r="A197" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>16</v>
@@ -2368,7 +2404,7 @@
     </row>
     <row r="198" spans="1:2" ht="12.75">
       <c r="A198" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>3</v>
@@ -2376,7 +2412,7 @@
     </row>
     <row r="199" spans="1:2" ht="12.75">
       <c r="A199" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>63</v>
@@ -2384,7 +2420,7 @@
     </row>
     <row r="200" spans="1:2" ht="12.75">
       <c r="A200" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>31</v>
@@ -2392,7 +2428,7 @@
     </row>
     <row r="201" spans="1:2" ht="12.75">
       <c r="A201" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>54</v>
@@ -2400,7 +2436,7 @@
     </row>
     <row r="202" spans="1:2" ht="12.75">
       <c r="A202" s="1" t="s">
-        <v>52</v>
+        <v>140</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>32</v>
@@ -2408,7 +2444,7 @@
     </row>
     <row r="203" spans="1:2" ht="12.75">
       <c r="A203" s="1" t="s">
-        <v>49</v>
+        <v>121</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>8</v>
@@ -2416,7 +2452,7 @@
     </row>
     <row r="204" spans="1:2" ht="12.75">
       <c r="A204" s="1" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>62</v>
@@ -2424,7 +2460,7 @@
     </row>
     <row r="205" spans="1:2" ht="12.75">
       <c r="A205" s="1" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>33</v>
@@ -2432,7 +2468,7 @@
     </row>
     <row r="206" spans="1:2" ht="12.75">
       <c r="A206" s="1" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>67</v>
@@ -2440,7 +2476,7 @@
     </row>
     <row r="207" spans="1:2" ht="12.75">
       <c r="A207" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>55</v>
@@ -2448,7 +2484,7 @@
     </row>
     <row r="208" spans="1:2" ht="12.75">
       <c r="A208" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>60</v>
@@ -2456,7 +2492,7 @@
     </row>
     <row r="209" spans="1:2" ht="12.75">
       <c r="A209" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>22</v>
@@ -2464,7 +2500,7 @@
     </row>
     <row r="210" spans="1:2" ht="12.75">
       <c r="A210" s="1" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>7</v>
@@ -2472,7 +2508,7 @@
     </row>
     <row r="211" spans="1:2" ht="12.75">
       <c r="A211" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>58</v>
@@ -2480,7 +2516,7 @@
     </row>
     <row r="212" spans="1:2" ht="12.75">
       <c r="A212" s="1" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>55</v>
@@ -2488,7 +2524,7 @@
     </row>
     <row r="213" spans="1:2" ht="12.75">
       <c r="A213" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>32</v>
@@ -2504,7 +2540,7 @@
     </row>
     <row r="215" spans="1:2" ht="12.75">
       <c r="A215" s="1" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>43</v>
@@ -2512,7 +2548,7 @@
     </row>
     <row r="216" spans="1:2" ht="12.75">
       <c r="A216" s="1" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>63</v>
@@ -2520,7 +2556,7 @@
     </row>
     <row r="217" spans="1:2" ht="12.75">
       <c r="A217" s="1" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>13</v>
@@ -2528,7 +2564,7 @@
     </row>
     <row r="218" spans="1:2" ht="12.75">
       <c r="A218" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>10</v>
@@ -2536,7 +2572,7 @@
     </row>
     <row r="219" spans="1:2" ht="12.75">
       <c r="A219" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>65</v>
@@ -2544,7 +2580,7 @@
     </row>
     <row r="220" spans="1:2" ht="12.75">
       <c r="A220" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>71</v>
@@ -2560,7 +2596,7 @@
     </row>
     <row r="222" spans="1:2" ht="12.75">
       <c r="A222" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>37</v>
@@ -2568,7 +2604,7 @@
     </row>
     <row r="223" spans="1:2" ht="12.75">
       <c r="A223" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>45</v>
@@ -2576,7 +2612,7 @@
     </row>
     <row r="224" spans="1:2" ht="12.75">
       <c r="A224" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>35</v>
@@ -2592,7 +2628,7 @@
     </row>
     <row r="226" spans="1:2" ht="12.75">
       <c r="A226" s="1" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>63</v>
@@ -2600,7 +2636,7 @@
     </row>
     <row r="227" spans="1:2" ht="12.75">
       <c r="A227" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>11</v>
@@ -2608,7 +2644,7 @@
     </row>
     <row r="228" spans="1:2" ht="12.75">
       <c r="A228" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>37</v>
@@ -2616,7 +2652,7 @@
     </row>
     <row r="229" spans="1:2" ht="12.75">
       <c r="A229" s="1" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>39</v>
@@ -2624,7 +2660,7 @@
     </row>
     <row r="230" spans="1:2" ht="12.75">
       <c r="A230" s="1" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>63</v>
@@ -2640,7 +2676,7 @@
     </row>
     <row r="232" spans="1:2" ht="12.75">
       <c r="A232" s="1" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>41</v>
@@ -2648,7 +2684,7 @@
     </row>
     <row r="233" spans="1:2" ht="12.75">
       <c r="A233" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>73</v>
@@ -2656,7 +2692,7 @@
     </row>
     <row r="234" spans="1:2" ht="12.75">
       <c r="A234" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>40</v>
@@ -2664,7 +2700,7 @@
     </row>
     <row r="235" spans="1:2" ht="12.75">
       <c r="A235" s="1" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>34</v>
@@ -2672,7 +2708,7 @@
     </row>
     <row r="236" spans="1:2" ht="12.75">
       <c r="A236" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>5</v>
@@ -2680,7 +2716,7 @@
     </row>
     <row r="237" spans="1:2" ht="12.75">
       <c r="A237" s="1" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>52</v>
@@ -2688,7 +2724,7 @@
     </row>
     <row r="238" spans="1:2" ht="12.75">
       <c r="A238" s="1" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>13</v>
@@ -2696,7 +2732,7 @@
     </row>
     <row r="239" spans="1:2" ht="12.75">
       <c r="A239" s="1" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>26</v>
@@ -2704,7 +2740,7 @@
     </row>
     <row r="240" spans="1:2" ht="12.75">
       <c r="A240" s="1" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>37</v>
@@ -2712,7 +2748,7 @@
     </row>
     <row r="241" spans="1:2" ht="12.75">
       <c r="A241" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>16</v>
@@ -2720,7 +2756,7 @@
     </row>
     <row r="242" spans="1:2" ht="12.75">
       <c r="A242" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>34</v>
@@ -2728,7 +2764,7 @@
     </row>
     <row r="243" spans="1:2" ht="12.75">
       <c r="A243" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>2</v>
@@ -2736,7 +2772,7 @@
     </row>
     <row r="244" spans="1:2" ht="12.75">
       <c r="A244" s="1" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>16</v>
@@ -2744,7 +2780,7 @@
     </row>
     <row r="245" spans="1:2" ht="12.75">
       <c r="A245" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>51</v>
@@ -2752,7 +2788,7 @@
     </row>
     <row r="246" spans="1:2" ht="12.75">
       <c r="A246" s="1" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>42</v>
@@ -2760,7 +2796,7 @@
     </row>
     <row r="247" spans="1:2" ht="12.75">
       <c r="A247" s="1" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>3</v>
@@ -2768,7 +2804,7 @@
     </row>
     <row r="248" spans="1:2" ht="12.75">
       <c r="A248" s="1" t="s">
-        <v>52</v>
+        <v>140</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>16</v>
@@ -2784,7 +2820,7 @@
     </row>
     <row r="250" spans="1:2" ht="12.75">
       <c r="A250" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>68</v>
@@ -2792,7 +2828,7 @@
     </row>
     <row r="251" spans="1:2" ht="12.75">
       <c r="A251" s="1" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>16</v>
@@ -2800,7 +2836,7 @@
     </row>
     <row r="252" spans="1:2" ht="12.75">
       <c r="A252" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>1</v>
@@ -2808,7 +2844,7 @@
     </row>
     <row r="253" spans="1:2" ht="12.75">
       <c r="A253" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>42</v>
@@ -2816,7 +2852,7 @@
     </row>
     <row r="254" spans="1:2" ht="12.75">
       <c r="A254" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>13</v>
@@ -2824,7 +2860,7 @@
     </row>
     <row r="255" spans="1:2" ht="12.75">
       <c r="A255" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>13</v>
@@ -2832,7 +2868,7 @@
     </row>
     <row r="256" spans="1:2" ht="12.75">
       <c r="A256" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>17</v>
@@ -2840,7 +2876,7 @@
     </row>
     <row r="257" spans="1:2" ht="12.75">
       <c r="A257" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>2</v>
@@ -2848,7 +2884,7 @@
     </row>
     <row r="258" spans="1:2" ht="12.75">
       <c r="A258" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>57</v>
@@ -2856,7 +2892,7 @@
     </row>
     <row r="259" spans="1:2" ht="12.75">
       <c r="A259" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>49</v>
@@ -2864,7 +2900,7 @@
     </row>
     <row r="260" spans="1:2" ht="12.75">
       <c r="A260" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B260" s="1" t="s">
         <v>69</v>
@@ -2872,7 +2908,7 @@
     </row>
     <row r="261" spans="1:2" ht="12.75">
       <c r="A261" s="1" t="s">
-        <v>50</v>
+        <v>149</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>63</v>
@@ -2880,7 +2916,7 @@
     </row>
     <row r="262" spans="1:2" ht="12.75">
       <c r="A262" s="1" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>59</v>
@@ -2888,7 +2924,7 @@
     </row>
     <row r="263" spans="1:2" ht="12.75">
       <c r="A263" s="1" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>70</v>
@@ -2896,7 +2932,7 @@
     </row>
     <row r="264" spans="1:2" ht="12.75">
       <c r="A264" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B264" s="1" t="s">
         <v>70</v>
@@ -2904,7 +2940,7 @@
     </row>
     <row r="265" spans="1:2" ht="12.75">
       <c r="A265" s="1" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="B265" s="1" t="s">
         <v>16</v>
@@ -2912,7 +2948,7 @@
     </row>
     <row r="266" spans="1:2" ht="12.75">
       <c r="A266" s="1" t="s">
-        <v>13</v>
+        <v>143</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>53</v>
@@ -2920,7 +2956,7 @@
     </row>
     <row r="267" spans="1:2" ht="12.75">
       <c r="A267" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>66</v>
